--- a/MLAlgo_track.xlsx
+++ b/MLAlgo_track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artophilic\Datascience Bootcamp\Network_pract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D523FF-F2C2-42F5-BF87-448C8BE060F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0111BC2-B4BC-4B07-842F-352F39D55BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="14016" windowHeight="12336" xr2:uid="{066C47AF-8F4A-4CA5-941E-1B5EA365EBA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{066C47AF-8F4A-4CA5-941E-1B5EA365EBA4}"/>
   </bookViews>
   <sheets>
     <sheet name="UNSW-NB15" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Algorithm name</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>SVM</t>
+  </si>
+  <si>
+    <t>Sampling of dataset</t>
+  </si>
+  <si>
+    <t>classification_report</t>
+  </si>
+  <si>
+    <t>SVM with default parameter takes longer time when the dataset have more rows</t>
   </si>
 </sst>
 </file>
@@ -455,7 +464,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,7 +475,7 @@
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -546,7 +555,19 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>0.91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/MLAlgo_track.xlsx
+++ b/MLAlgo_track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artophilic\Datascience Bootcamp\Network_pract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0111BC2-B4BC-4B07-842F-352F39D55BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8033BFAD-C140-40CA-B37D-5B4BE00805EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{066C47AF-8F4A-4CA5-941E-1B5EA365EBA4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Algorithm name</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>SVM with default parameter takes longer time when the dataset have more rows</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>confusion_matrix, classification report</t>
+  </si>
+  <si>
+    <t>Used Stratifiy parameter in train and test split to keep balance in dependent dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropped ID col, </t>
+  </si>
+  <si>
+    <t>Some of the imp feature : src_bytes, smeans, ct_srv_src, sttl, Need to balance data.</t>
   </si>
 </sst>
 </file>
@@ -162,6 +177,38 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCDF3E70-0617-453E-A4D1-670C9B6C6F0A}" name="Table1" displayName="Table1" ref="A1:G6" totalsRowShown="0">
+  <autoFilter ref="A1:G6" xr:uid="{FCDF3E70-0617-453E-A4D1-670C9B6C6F0A}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{12118591-B30E-44FA-BF9A-4300A438FC88}" name="Algorithm name"/>
+    <tableColumn id="2" xr3:uid="{F524B851-3109-4928-9699-03AF1D110E39}" name="Problem Type"/>
+    <tableColumn id="3" xr3:uid="{67AB3608-375B-4E91-8EB8-771B80E15EDF}" name="Preprocessing steps"/>
+    <tableColumn id="4" xr3:uid="{268CE046-A938-4096-912E-4C86EA8636C5}" name="Hyperparameter tuning"/>
+    <tableColumn id="5" xr3:uid="{AB0A0FD3-8E7A-4CB9-841E-DA6819436331}" name="Metrics used"/>
+    <tableColumn id="6" xr3:uid="{F2AE948D-E596-4ED0-BF3B-5DE3D2A19032}" name="Results"/>
+    <tableColumn id="7" xr3:uid="{0ACFE35F-6F76-4D7A-8B68-AD95ACCC4ED2}" name="Observations"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10E4F784-EE32-4E68-B3EC-5B00E6A236F9}" name="Table2" displayName="Table2" ref="A1:G2" totalsRowShown="0">
+  <autoFilter ref="A1:G2" xr:uid="{10E4F784-EE32-4E68-B3EC-5B00E6A236F9}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{8B41CE78-C760-44DE-98F6-001FEB22B9A7}" name="Algorithm name"/>
+    <tableColumn id="2" xr3:uid="{794C9AB6-39F6-4354-A3CE-D97EDBA76BE1}" name="Problem Type"/>
+    <tableColumn id="3" xr3:uid="{463A6BBB-14EE-4F8C-8F46-242112A61D8F}" name="Preprocessing steps"/>
+    <tableColumn id="4" xr3:uid="{39B89582-39F1-4D01-9A6A-0F7FC20F8040}" name="Hyperparameter tuning"/>
+    <tableColumn id="5" xr3:uid="{C4C35076-14B1-4DF0-8363-5D0645CB8F07}" name="Metrics used"/>
+    <tableColumn id="6" xr3:uid="{27DBBABE-BB3C-4BEA-B1D1-60742BAC483D}" name="Results"/>
+    <tableColumn id="7" xr3:uid="{47C7A40C-B194-4C73-949F-4B7C4D1383A9}" name="Observations"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,20 +508,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58DCC70-320A-4C56-876B-36BF85345A89}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
     <col min="3" max="3" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
     <col min="7" max="7" width="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -570,8 +617,57 @@
         <v>24</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>0.99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>0.99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -579,16 +675,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8628E6F-C6E0-43B8-B7B7-FE9D52CEEEC1}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
     <col min="3" max="3" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
     <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -641,5 +737,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>